--- a/page/eb07/s05/eb07-s05.xlsx
+++ b/page/eb07/s05/eb07-s05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus2\production\eb07\s05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus2\page\eb07\s05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="eb07-s05" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="415">
   <si>
     <t>p-pg</t>
   </si>
@@ -1265,7 +1265,10 @@
     <t>Two anchors for n.1, and one for n.2. Add 2nd n.1 in tei-e.</t>
   </si>
   <si>
-    <t>Reoutput entire section in AFR; added STEAM-ENGINE to partial entry.</t>
+    <t>Corrected table</t>
+  </si>
+  <si>
+    <t>Reoutput entire section in AFR; added STEAM-ENGINE to partial entry; fixed table</t>
   </si>
 </sst>
 </file>
@@ -1631,9 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1719,7 @@
       </c>
       <c r="J2" s="5"/>
       <c r="L2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1865,6 +1868,9 @@
         <v>237</v>
       </c>
       <c r="J10" s="5"/>
+      <c r="L10" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
